--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Desktop\Respaldo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F28331-E8DB-4593-9A71-0B09BBA29CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED911F0-16DB-423D-B98D-D12660D52219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="1035" yWindow="2145" windowWidth="15375" windowHeight="7875" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="105">
   <si>
     <t>NO P</t>
   </si>
@@ -923,11 +923,11 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,9 +1610,7 @@
       <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -1665,9 +1663,7 @@
       <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
@@ -1717,9 +1713,7 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
@@ -1769,9 +1763,7 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED911F0-16DB-423D-B98D-D12660D52219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194AA01-8AE7-406D-BEB4-32D91EE4040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="2145" windowWidth="15375" windowHeight="7875" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="105">
   <si>
     <t>NO P</t>
   </si>
@@ -1763,7 +1763,9 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194AA01-8AE7-406D-BEB4-32D91EE4040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E960D-8FE3-4C49-9AC0-934B1044B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2145" windowWidth="15375" windowHeight="7875" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
   <si>
     <t>NO P</t>
   </si>
@@ -425,6 +425,21 @@
   </si>
   <si>
     <t>00x00</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>\\corpsfeisilon1.corp.televisa.com.mx\Bkp_Dai_Intermex\RespaldoIndicadores\1 Reportes\3000 AutoID\1 Producción\1 Sin compilar\25 109 Cortesias\Cifra Control</t>
   </si>
 </sst>
 </file>
@@ -920,14 +935,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE7451-A8B8-466F-87B1-5A41119ECC85}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1728,9 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D16" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1755,13 +1773,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>64</v>
@@ -1807,13 +1828,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1834,7 +1858,7 @@
       <c r="S18" s="15"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1842,7 +1866,9 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1871,7 +1897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1888,10 +1914,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="21"/>
       <c r="N20" s="20"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -1901,8 +1924,9 @@
       <c r="T20" s="22"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="20"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1911,6 +1935,9 @@
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1930,7 +1957,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1939,6 +1966,9 @@
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1967,7 +1997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1976,6 +2006,9 @@
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2003,7 +2036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2012,6 +2045,9 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>64</v>
@@ -2057,7 +2093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2066,6 +2102,9 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>64</v>
@@ -2111,7 +2150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2165,7 +2204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2219,7 +2258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2273,7 +2312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2327,7 +2366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2381,7 +2420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2435,7 +2474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2990,6 +3029,11 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T55" s="8"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E960D-8FE3-4C49-9AC0-934B1044B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AB531-81FF-45A5-95D8-EA3FCF4B3780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="109">
   <si>
     <t>NO P</t>
   </si>
@@ -304,9 +304,6 @@
     <t>MARIO</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Ana</t>
   </si>
   <si>
@@ -439,7 +436,7 @@
     <t>00000</t>
   </si>
   <si>
-    <t>\\corpsfeisilon1.corp.televisa.com.mx\Bkp_Dai_Intermex\RespaldoIndicadores\1 Reportes\3000 AutoID\1 Producción\1 Sin compilar\25 109 Cortesias\Cifra Control</t>
+    <t>0000x</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +547,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -563,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +623,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,6 +637,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9999FF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF00FFFF"/>
@@ -935,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE7451-A8B8-466F-87B1-5A41119ECC85}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
@@ -968,7 +984,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="25"/>
       <c r="T1" s="19" t="s">
@@ -980,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -992,10 +1008,10 @@
         <v>63</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>49</v>
@@ -1007,13 +1023,13 @@
         <v>51</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>53</v>
@@ -1034,10 +1050,10 @@
         <v>60</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1045,21 +1061,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="9">
         <v>44809</v>
@@ -1078,7 +1092,7 @@
         <v>3.4722222222222154E-2</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>59</v>
@@ -1094,7 +1108,7 @@
       </c>
       <c r="S3" s="15"/>
       <c r="T3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1106,11 +1120,9 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="M4" s="10">
@@ -1119,7 +1131,7 @@
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1131,15 +1143,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="9">
         <v>44811</v>
@@ -1158,7 +1168,7 @@
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>59</v>
@@ -1171,7 +1181,7 @@
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1179,21 +1189,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="9">
         <v>44809</v>
@@ -1212,7 +1220,7 @@
         <v>3.4027777777777879E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>59</v>
@@ -1228,7 +1236,7 @@
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1236,21 +1244,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="9">
         <v>44809</v>
@@ -1269,7 +1275,7 @@
         <v>3.7499999999999978E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>59</v>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1297,15 +1303,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="9">
         <v>44811</v>
@@ -1324,7 +1328,7 @@
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>59</v>
@@ -1340,7 +1344,7 @@
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1352,15 +1356,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="9">
         <v>44811</v>
@@ -1379,7 +1381,7 @@
         <v>5.347222222222231E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>59</v>
@@ -1395,7 +1397,7 @@
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1403,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="9">
         <v>44809</v>
@@ -1434,7 +1436,7 @@
         <v>1.5972222222222165E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>59</v>
@@ -1450,7 +1452,7 @@
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1458,19 +1460,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="9">
         <v>44810</v>
@@ -1489,7 +1491,7 @@
         <v>0.18124999999999997</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>59</v>
@@ -1505,7 +1507,7 @@
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1517,13 +1519,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="9">
         <v>44809</v>
@@ -1542,7 +1544,7 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>59</v>
@@ -1558,7 +1560,7 @@
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1570,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="9">
         <v>44809</v>
@@ -1595,7 +1597,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>59</v>
@@ -1611,7 +1613,7 @@
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1623,13 +1625,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="9">
         <v>44811</v>
@@ -1648,7 +1650,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>59</v>
@@ -1664,7 +1666,7 @@
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1676,13 +1678,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="9">
         <v>44811</v>
@@ -1701,7 +1703,7 @@
         <v>5.5555555555555358E-3</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>59</v>
@@ -1717,7 +1719,7 @@
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1729,13 +1731,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="9">
         <v>44811</v>
@@ -1754,7 +1756,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>59</v>
@@ -1770,7 +1772,7 @@
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1782,15 +1784,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="9">
         <v>44810</v>
@@ -1809,7 +1809,7 @@
         <v>3.6805555555555536E-2</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>59</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1837,23 +1837,23 @@
         <v>17</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="9">
         <v>44811</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="8"/>
@@ -1866,14 +1866,14 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>106</v>
+      <c r="D19" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="9">
         <v>44810</v>
@@ -1890,11 +1890,11 @@
         <v>-0.59027777777777779</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1931,28 +1931,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="9">
         <v>44810</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="8"/>
@@ -1962,19 +1962,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="9">
         <v>44809</v>
@@ -1987,14 +1987,14 @@
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2002,19 +2002,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="9">
         <v>44809</v>
@@ -2026,14 +2026,14 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2041,21 +2041,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9">
         <v>44809</v>
@@ -2074,7 +2072,7 @@
         <v>3.6111111111111149E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>59</v>
@@ -2090,7 +2088,7 @@
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2098,21 +2096,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9">
         <v>44809</v>
@@ -2131,7 +2127,7 @@
         <v>1.1805555555555569E-2</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>59</v>
@@ -2147,7 +2143,7 @@
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2155,18 +2151,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9">
         <v>44809</v>
@@ -2185,7 +2182,7 @@
         <v>1.5277777777777835E-2</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>59</v>
@@ -2201,7 +2198,7 @@
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2209,18 +2206,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9">
         <v>44809</v>
@@ -2239,7 +2237,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="N27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>59</v>
@@ -2255,7 +2253,7 @@
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2263,18 +2261,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9">
         <v>44809</v>
@@ -2293,7 +2292,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="N28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>59</v>
@@ -2309,7 +2308,7 @@
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2317,18 +2316,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9">
         <v>44809</v>
@@ -2347,7 +2347,7 @@
         <v>4.8611111111112049E-3</v>
       </c>
       <c r="N29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>59</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2371,18 +2371,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9">
         <v>44809</v>
@@ -2401,7 +2402,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="N30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>59</v>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2425,18 +2426,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9">
         <v>44809</v>
@@ -2455,7 +2457,7 @@
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="N31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>59</v>
@@ -2471,7 +2473,7 @@
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2482,9 +2484,10 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="M32" s="10">
@@ -2493,7 +2496,7 @@
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2503,6 +2506,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2513,7 +2519,7 @@
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2521,27 +2527,30 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2551,23 +2560,26 @@
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>81</v>
-      </c>
-      <c r="M35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>82</v>
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2578,13 +2590,14 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D36" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="13">
         <v>44810</v>
@@ -2603,7 +2616,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>59</v>
@@ -2619,7 +2632,7 @@
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2630,13 +2643,14 @@
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I37" s="13">
         <v>44810</v>
@@ -2655,7 +2669,7 @@
         <v>1.1805555555555514E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>59</v>
@@ -2671,7 +2685,7 @@
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2682,13 +2696,14 @@
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D38" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9">
         <v>44810</v>
@@ -2707,7 +2722,7 @@
         <v>1.4583333333333393E-2</v>
       </c>
       <c r="N38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>59</v>
@@ -2723,7 +2738,7 @@
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2734,13 +2749,14 @@
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D39" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9">
         <v>44810</v>
@@ -2759,7 +2775,7 @@
         <v>7.3611111111111072E-2</v>
       </c>
       <c r="N39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>59</v>
@@ -2775,7 +2791,7 @@
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2786,13 +2802,14 @@
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D40" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9">
         <v>44810</v>
@@ -2811,7 +2828,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
       <c r="N40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>59</v>
@@ -2827,7 +2844,7 @@
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2838,26 +2855,27 @@
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9">
         <v>44810</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3029,11 +3047,6 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T55" s="8"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AB531-81FF-45A5-95D8-EA3FCF4B3780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F3864-E827-4D86-84D0-203AD73E2C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
   <si>
     <t>NO P</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Había una incidencia, no estaba el mes de agosto y se descargó únicamente este mes faltante</t>
   </si>
   <si>
-    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55.</t>
-  </si>
-  <si>
     <t>00x</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>0000x</t>
+  </si>
+  <si>
+    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Correcto.</t>
   </si>
 </sst>
 </file>
@@ -620,14 +620,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,11 +954,11 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,14 +979,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="27"/>
       <c r="T1" s="19" t="s">
         <v>54</v>
       </c>
@@ -1067,11 +1067,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>96</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
@@ -1120,11 +1121,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>98</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="M4" s="10">
         <f t="shared" ref="M4:M50" si="0">L4-J4</f>
         <v>0</v>
@@ -1142,46 +1144,44 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="9">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="J5" s="10">
-        <v>0.6972222222222223</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="K5" s="10">
-        <v>0.74652777777777779</v>
+        <v>0.73541666666666661</v>
       </c>
       <c r="L5" s="10">
-        <v>0.74722222222222223</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>4.9999999999999933E-2</v>
+        <v>1.5972222222222276E-2</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1195,11 +1195,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>99</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="H6" t="s">
         <v>70</v>
       </c>
@@ -1250,11 +1251,12 @@
         <v>6</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>96</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H7" t="s">
         <v>70</v>
       </c>
@@ -1303,11 +1305,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" t="s">
         <v>71</v>
       </c>
@@ -1356,11 +1360,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="H9" t="s">
         <v>64</v>
       </c>
@@ -1411,11 +1417,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" t="s">
         <v>71</v>
       </c>
@@ -1466,11 +1474,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H11" t="s">
         <v>71</v>
       </c>
@@ -1519,11 +1529,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="H12" t="s">
         <v>70</v>
       </c>
@@ -1572,11 +1584,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="H13" t="s">
         <v>71</v>
       </c>
@@ -1625,11 +1639,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H14" t="s">
         <v>64</v>
       </c>
@@ -1678,11 +1694,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H15" t="s">
         <v>64</v>
       </c>
@@ -1731,11 +1749,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="H16" t="s">
         <v>71</v>
       </c>
@@ -1784,11 +1804,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H17" t="s">
         <v>80</v>
       </c>
@@ -1837,11 +1859,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
@@ -1866,12 +1890,14 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>105</v>
+      <c r="D19" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H19" t="s">
         <v>70</v>
       </c>
@@ -1936,12 +1962,14 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>106</v>
+      <c r="D21" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="H21" t="s">
         <v>87</v>
       </c>
@@ -1968,11 +1996,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="H22" t="s">
         <v>80</v>
       </c>
@@ -2008,11 +2038,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="H23" t="s">
         <v>80</v>
       </c>
@@ -2047,11 +2079,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H24" t="s">
         <v>64</v>
       </c>
@@ -2102,11 +2136,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H25" t="s">
         <v>64</v>
       </c>
@@ -2157,11 +2193,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H26" t="s">
         <v>64</v>
       </c>
@@ -2212,11 +2250,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H27" t="s">
         <v>64</v>
       </c>
@@ -2267,11 +2307,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H28" t="s">
         <v>64</v>
       </c>
@@ -2322,11 +2364,13 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H29" t="s">
         <v>64</v>
       </c>
@@ -2377,11 +2421,13 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H30" t="s">
         <v>71</v>
       </c>
@@ -2432,11 +2478,13 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H31" t="s">
         <v>71</v>
       </c>
@@ -2485,11 +2533,13 @@
         <v>31</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="M32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2508,11 +2558,13 @@
         <v>32</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="M33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2533,11 +2585,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="H34" t="s">
         <v>87</v>
       </c>
@@ -2562,11 +2616,13 @@
         <v>34</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="H35" t="s">
         <v>80</v>
       </c>
@@ -2590,12 +2646,14 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>100</v>
+      <c r="D36" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="H36" t="s">
         <v>71</v>
       </c>
@@ -2644,11 +2702,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H37" t="s">
         <v>71</v>
       </c>
@@ -2696,12 +2756,14 @@
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>100</v>
+      <c r="D38" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="H38" t="s">
         <v>71</v>
       </c>
@@ -2750,11 +2812,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="H39" t="s">
         <v>71</v>
       </c>
@@ -2802,12 +2866,14 @@
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>108</v>
+      <c r="D40" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="H40" t="s">
         <v>71</v>
       </c>
@@ -2856,11 +2922,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="H41" t="s">
         <v>80</v>
       </c>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F3864-E827-4D86-84D0-203AD73E2C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F4BE4-9A77-4968-B30D-87192100248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>mediazb</author>
+    <author>Diaz Leal Maria Guadalupe</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{960FD3A6-FB27-40DA-9AEE-5363F56D3F06}">
@@ -55,6 +56,20 @@
 Data: Carp Files, Carp FTPySQL, ejecutable.
 En Cifra Control agregar las de Carp Descarga y ejecutable
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{625365A8-EABF-4E24-BE73-30C506E63471}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NARANJA: los archivos .exe ya fueron modificados</t>
         </r>
       </text>
     </comment>
@@ -436,7 +451,7 @@
     <t>0000x</t>
   </si>
   <si>
-    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Correcto.</t>
+    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Se finaliza correctamente.</t>
   </si>
 </sst>
 </file>
@@ -954,11 +969,11 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Televisa S.A. de C.V\Documentos\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F4BE4-9A77-4968-B30D-87192100248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACF635-3842-4293-8393-8B00AEF3315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
   <authors>
     <author>mediazb</author>
     <author>Diaz Leal Maria Guadalupe</author>
+    <author>Rodriguez Morales Alejandro</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{960FD3A6-FB27-40DA-9AEE-5363F56D3F06}">
@@ -70,6 +71,30 @@
             <charset val="1"/>
           </rPr>
           <t>NARANJA: los archivos .exe ya fueron modificados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{88BCF19B-C9DB-4688-AA1A-FA1DC9A80D14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rodriguez Morales Alejandro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se está descargando por línea de comandos porque la aplicación de escritorio tiene un error. </t>
         </r>
       </text>
     </comment>
@@ -125,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="108">
   <si>
     <t>NO P</t>
   </si>
@@ -442,22 +467,19 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>00000</t>
   </si>
   <si>
     <t>0000x</t>
   </si>
   <si>
-    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Se finaliza correctamente.</t>
+    <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:22, finalizó 17:39. Viernes:  Aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:19, finalizó 17:36.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,18 +635,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,7 +663,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{048FD230-B196-422C-8084-B412B6E8E6DB}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF9999FF"/>
@@ -973,7 +989,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,15 +1010,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="T1" s="19" t="s">
+      <c r="G1" s="23"/>
+      <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1022,10 +1038,10 @@
       <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1067,7 +1083,7 @@
       <c r="T2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1081,11 +1097,11 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>96</v>
+      <c r="D3" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H3" t="s">
@@ -1122,7 +1138,7 @@
       <c r="R3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="15"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1135,18 +1151,18 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>98</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" ref="M4:M50" si="0">L4-J4</f>
         <v>0</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="8" t="s">
         <v>82</v>
       </c>
@@ -1159,31 +1175,31 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="9">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="J5" s="10">
-        <v>0.72361111111111109</v>
+        <v>0.72152777777777777</v>
       </c>
       <c r="K5" s="10">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="L5" s="10">
         <v>0.73541666666666661</v>
       </c>
-      <c r="L5" s="10">
-        <v>0.73958333333333337</v>
-      </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>1.5972222222222276E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="N5" t="s">
         <v>75</v>
@@ -1194,9 +1210,9 @@
       <c r="P5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="15"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1209,11 +1225,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H6" t="s">
@@ -1250,7 +1266,7 @@
       <c r="R6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="15"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1265,11 +1281,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H7" t="s">
@@ -1306,7 +1322,7 @@
       <c r="R7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="8" t="s">
         <v>69</v>
       </c>
@@ -1319,12 +1335,12 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>101</v>
       </c>
       <c r="H8" t="s">
@@ -1361,7 +1377,7 @@
       <c r="R8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S8" s="15"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="8" t="s">
         <v>69</v>
       </c>
@@ -1374,12 +1390,12 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H9" t="s">
@@ -1416,7 +1432,7 @@
       <c r="R9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="15"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="8" t="s">
         <v>69</v>
       </c>
@@ -1431,12 +1447,12 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H10" t="s">
@@ -1473,7 +1489,7 @@
       <c r="R10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S10" s="15"/>
+      <c r="S10" s="12"/>
       <c r="T10" s="8" t="s">
         <v>69</v>
       </c>
@@ -1488,12 +1504,12 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H11" t="s">
@@ -1508,7 +1524,7 @@
       <c r="K11" s="10">
         <v>0.53611111111111109</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>0.56111111111111112</v>
       </c>
       <c r="M11" s="10">
@@ -1530,8 +1546,8 @@
       <c r="R11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="12" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1543,12 +1559,12 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="20" t="s">
         <v>101</v>
       </c>
       <c r="H12" t="s">
@@ -1585,7 +1601,7 @@
       <c r="R12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="8" t="s">
         <v>69</v>
       </c>
@@ -1598,12 +1614,12 @@
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H13" t="s">
@@ -1615,10 +1631,10 @@
       <c r="J13" s="10">
         <v>0.63194444444444442</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="10">
         <v>0.6694444444444444</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <v>0.69305555555555554</v>
       </c>
       <c r="M13" s="10">
@@ -1640,7 +1656,7 @@
       <c r="R13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="17"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="8" t="s">
         <v>84</v>
       </c>
@@ -1695,7 +1711,7 @@
       <c r="R14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="15"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="8" t="s">
         <v>69</v>
       </c>
@@ -1750,7 +1766,7 @@
       <c r="R15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="8" t="s">
         <v>69</v>
       </c>
@@ -1763,12 +1779,12 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="H16" t="s">
@@ -1805,7 +1821,7 @@
       <c r="R16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="15"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="8" t="s">
         <v>69</v>
       </c>
@@ -1818,12 +1834,12 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -1832,13 +1848,13 @@
       <c r="I17" s="9">
         <v>44810</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>0.78125</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="10">
         <v>0.81805555555555554</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="10">
         <v>0.81805555555555554</v>
       </c>
       <c r="M17" s="10">
@@ -1860,7 +1876,7 @@
       <c r="R17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S17" s="15"/>
+      <c r="S17" s="12"/>
       <c r="T17" s="8" t="s">
         <v>69</v>
       </c>
@@ -1873,13 +1889,13 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>105</v>
+      <c r="D18" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="24" t="s">
-        <v>105</v>
+      <c r="G18" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -1894,7 +1910,7 @@
       <c r="N18" t="s">
         <v>75</v>
       </c>
-      <c r="S18" s="15"/>
+      <c r="S18" s="12"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1905,7 +1921,7 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>104</v>
       </c>
       <c r="E19" s="1"/>
@@ -1933,7 +1949,7 @@
       <c r="N19" t="s">
         <v>75</v>
       </c>
-      <c r="S19" s="15"/>
+      <c r="S19" s="12"/>
       <c r="T19" s="8" t="s">
         <v>85</v>
       </c>
@@ -1950,22 +1966,22 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1977,12 +1993,12 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H21" t="s">
@@ -1997,7 +2013,7 @@
       <c r="N21" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="15"/>
+      <c r="S21" s="12"/>
       <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2010,13 +2026,13 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>106</v>
+      <c r="D22" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="24" t="s">
-        <v>106</v>
+      <c r="G22" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
@@ -2037,7 +2053,7 @@
       <c r="N22" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="15"/>
+      <c r="S22" s="12"/>
       <c r="T22" s="8" t="s">
         <v>94</v>
       </c>
@@ -2052,12 +2068,12 @@
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H23" t="s">
@@ -2078,7 +2094,7 @@
       <c r="N23" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="15"/>
+      <c r="S23" s="12"/>
       <c r="T23" s="8" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2151,7 @@
       <c r="R24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="15"/>
+      <c r="S24" s="12"/>
       <c r="T24" s="8" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2208,7 @@
       <c r="R25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S25" s="17"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="8" t="s">
         <v>68</v>
       </c>
@@ -2249,7 +2265,7 @@
       <c r="R26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S26" s="15"/>
+      <c r="S26" s="12"/>
       <c r="T26" s="8" t="s">
         <v>69</v>
       </c>
@@ -2306,7 +2322,7 @@
       <c r="R27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S27" s="17"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="8" t="s">
         <v>69</v>
       </c>
@@ -2363,7 +2379,7 @@
       <c r="R28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S28" s="15"/>
+      <c r="S28" s="12"/>
       <c r="T28" s="8" t="s">
         <v>69</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="R29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S29" s="17"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="8" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2493,7 @@
       <c r="R30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S30" s="17"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="8" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2550,7 @@
       <c r="R31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S31" s="17"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="8" t="s">
         <v>68</v>
       </c>
@@ -2547,19 +2563,19 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>103</v>
       </c>
       <c r="M32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="23"/>
+      <c r="S32" s="19"/>
       <c r="T32" s="8" t="s">
         <v>86</v>
       </c>
@@ -2572,19 +2588,19 @@
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>103</v>
       </c>
       <c r="M33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="23"/>
+      <c r="S33" s="19"/>
       <c r="T33" s="8" t="s">
         <v>86</v>
       </c>
@@ -2599,12 +2615,12 @@
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H34" t="s">
@@ -2617,7 +2633,7 @@
       <c r="N34" t="s">
         <v>75</v>
       </c>
-      <c r="S34" s="23"/>
+      <c r="S34" s="19"/>
       <c r="T34" s="8" t="s">
         <v>89</v>
       </c>
@@ -2630,12 +2646,12 @@
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H35" t="s">
@@ -2648,7 +2664,7 @@
       <c r="N35" t="s">
         <v>81</v>
       </c>
-      <c r="S35" s="23"/>
+      <c r="S35" s="19"/>
       <c r="T35" s="8" t="s">
         <v>88</v>
       </c>
@@ -2661,27 +2677,27 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="9">
         <v>44810</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="10">
         <v>0.63263888888888886</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="10">
         <v>0.65208333333333335</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10">
         <v>0.65833333333333333</v>
       </c>
       <c r="M36" s="10">
@@ -2703,7 +2719,7 @@
       <c r="R36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S36" s="15"/>
+      <c r="S36" s="12"/>
       <c r="T36" s="8" t="s">
         <v>69</v>
       </c>
@@ -2716,27 +2732,27 @@
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H37" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="9">
         <v>44810</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="10">
         <v>0.66111111111111109</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="10">
         <v>0.66527777777777775</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="10">
         <v>0.67291666666666661</v>
       </c>
       <c r="M37" s="10">
@@ -2758,7 +2774,7 @@
       <c r="R37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S37" s="17"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="8" t="s">
         <v>68</v>
       </c>
@@ -2771,12 +2787,12 @@
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H38" t="s">
@@ -2791,7 +2807,7 @@
       <c r="K38" s="10">
         <v>0.55347222222222225</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="10">
         <v>0.55486111111111114</v>
       </c>
       <c r="M38" s="10">
@@ -2813,7 +2829,7 @@
       <c r="R38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S38" s="15"/>
+      <c r="S38" s="12"/>
       <c r="T38" s="8" t="s">
         <v>69</v>
       </c>
@@ -2826,12 +2842,12 @@
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H39" t="s">
@@ -2846,7 +2862,7 @@
       <c r="K39" s="10">
         <v>0.56736111111111109</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="10">
         <v>0.63263888888888886</v>
       </c>
       <c r="M39" s="10">
@@ -2868,7 +2884,7 @@
       <c r="R39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S39" s="15"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="8" t="s">
         <v>69</v>
       </c>
@@ -2881,13 +2897,13 @@
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>107</v>
+      <c r="D40" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="26" t="s">
-        <v>107</v>
+      <c r="G40" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="H40" t="s">
         <v>71</v>
@@ -2895,13 +2911,13 @@
       <c r="I40" s="9">
         <v>44810</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="10">
         <v>0.54722222222222217</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="10">
         <v>0.57361111111111118</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="10">
         <v>0.5756944444444444</v>
       </c>
       <c r="M40" s="10">
@@ -2923,7 +2939,7 @@
       <c r="R40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S40" s="15"/>
+      <c r="S40" s="12"/>
       <c r="T40" s="8" t="s">
         <v>69</v>
       </c>
@@ -2936,12 +2952,12 @@
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="20" t="s">
         <v>103</v>
       </c>
       <c r="H41" t="s">
@@ -2956,7 +2972,7 @@
       <c r="N41" t="s">
         <v>75</v>
       </c>
-      <c r="S41" s="15"/>
+      <c r="S41" s="12"/>
       <c r="T41" s="8" t="s">
         <v>95</v>
       </c>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Televisa S.A. de C.V\Documentos\GitHub\DocEjecucionBots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACF635-3842-4293-8393-8B00AEF3315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11BCB2-C688-4A9E-9715-08C19D5440DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="SEM05_09_SEP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,8 +150,123 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mediazb</author>
+    <author>Diaz Leal Maria Guadalupe</author>
+    <author>Rodriguez Morales Alejandro</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21AD4ABD-42A4-411F-8AE3-43EF371BA23C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Validar descarga con las siguientes marcas:
+0-No descargó
+X-Descargado
+Data: Carp Files, Carp FTPySQL, ejecutable.
+En Cifra Control agregar las de Carp Descarga y ejecutable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{5E967E71-E3B2-4948-909D-40374BC94D11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NARANJA: los archivos .exe ya fueron modificados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{88287A71-0833-4074-B85C-4AEF8DF2F0DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rodriguez Morales Alejandro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se está descargando por línea de comandos porque la aplicación de escritorio tiene un error. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{6BAD5C09-7602-435E-811C-5DB899D48608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EJECUTANDOSE
+VALINDANDO
+PENDIENTE
+FINALIZADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{FFB75409-A067-4CEF-8504-A8D48A2DFA78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mediazb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+VERDE: 3000 Controles fue a la alza y proceso completo y validado 
+VIOLETA: DESCONTINUADO
+AMARILLO: Pendientes por ejecutarse
+ROJO: Se ejecutó y arrojó incidencias
+ANARANJADO: Se ejecutó pero 3000 controles se mantuvo
+ROSA: Ejecución depende de recepción de archivo
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="113">
   <si>
     <t>NO P</t>
   </si>
@@ -474,13 +590,28 @@
   </si>
   <si>
     <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:22, finalizó 17:39. Viernes:  Aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:19, finalizó 17:36.</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Se inicio una primera vez 08:45, se quedo trabado por lo cual se tuvo que reiniciar ejecución.</t>
+  </si>
+  <si>
+    <t>Se inicio una primera vez 12:14, se quedo trabado por lo cual se tuvo que reiniciar ejecución. No descargó toda la información. Alejandro terminó el proceso.</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrio de manera regular, pero no subía la información. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +677,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +733,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -609,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,6 +804,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,11 +1142,1772 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="T1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="M3" s="10">
+        <f>L3-J3</f>
+        <v>2.3611111111111083E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M50" si="0">L4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.50069444444444444</v>
+      </c>
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="N7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>9.7916666666666707E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="T12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20624999999999993</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="27"/>
+      <c r="T13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="M21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="27"/>
+      <c r="T24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="27"/>
+      <c r="T25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="27"/>
+      <c r="T26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1666666666667629E-3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13"/>
+      <c r="T28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="13"/>
+      <c r="T31" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13"/>
+      <c r="T33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13"/>
+      <c r="T36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="13"/>
+      <c r="T37" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="13"/>
+      <c r="T38" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="13"/>
+      <c r="T39" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="M41" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="M42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="M43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="M44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="M45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="M46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="M47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="M48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="M49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="M50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086E551-7A93-41CF-B43E-C90592426B32}">
+  <dimension ref="A1:W55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,59 +2928,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="29"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -1080,10 +2998,10 @@
       <c r="S2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="23" t="s">
         <v>90</v>
       </c>
     </row>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11BCB2-C688-4A9E-9715-08C19D5440DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817C1F02-3656-47F7-8A1A-B5D2DADC3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="SEM05_09_SEP" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$W$50</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -266,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="120">
   <si>
     <t>NO P</t>
   </si>
@@ -592,19 +595,40 @@
     <t>Proceso manual , el día lunes. El día martes debido a que están automátizando el proceso, y que mandaba incidencias, lo ejecutaron Alex y César. Miercoles: se descarga de GitHub la actualización, pero al descargar no trae la carpeta "files", la cual se agrega de manera manual para no detener el proceso. Pero en cuanto avisen de la actualización, deberá traer esta carpeta. Se realiza la validación en las carpetas y en la de desarrollo la ruta es: \\CORPSFEVEXTSQLP.corp.televisa.com.mx\Desarrollo\A1_Bases para subir a SQL\13 Diario de Ventas. Envia un cuadro de Error al finalizar el mes para iniciar el siguiente, solo clic en Aceptar y continua. Se ejecuto nuevamente a las 5:30 y finalizó 5:55. Jueves: Nuevamente aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:22, finalizó 17:39. Viernes:  Aparece el recuadro de error, se siguen indicaciones del día miercoles. Se ejecutó 17:19, finalizó 17:36.</t>
   </si>
   <si>
+    <t xml:space="preserve">Corrio de manera regular, pero no subía la información. </t>
+  </si>
+  <si>
+    <t>Se tiene un error ya que no guarda la información descargada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio el proceso Ana, Mario ejecuto el SP. </t>
+  </si>
+  <si>
+    <t>Se inicio una primera vez 08:45, se quedo trabado por lo cual se tuvo que reiniciar ejecución. Está en entrega de proceso.</t>
+  </si>
+  <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>Se inicio una primera vez 08:45, se quedo trabado por lo cual se tuvo que reiniciar ejecución.</t>
-  </si>
-  <si>
-    <t>Se inicio una primera vez 12:14, se quedo trabado por lo cual se tuvo que reiniciar ejecución. No descargó toda la información. Alejandro terminó el proceso.</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrio de manera regular, pero no subía la información. </t>
+    <t>Se inicio una primera vez 12:14, se quedo trabado por lo cual se tuvo que reiniciar ejecución de manera manual 2 veces. No descargó toda la información, falta un mes. Alejandro terminó el proceso en su máquina.</t>
+  </si>
+  <si>
+    <t>Proceso de entrega</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar el proceso manual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes: lo ejecuta Mario, sin incidencias. 17:32 - 17:52. Correcto. Martes: Ejecución por Ana, sin incidencias. 17:40 – 17:56. Correcto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecución por César debido a incidencias desde el día 12/09/2022. El Autoit corría y al finalizar el proceso no guardaba la información en las carpetas correspondientes. </t>
+  </si>
+  <si>
+    <t>Correcto. SP lo ejecuta Ana.</t>
   </si>
 </sst>
 </file>
@@ -684,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,7 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,6 +844,11 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,11 +1177,11 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,11 +1354,41 @@
       <c r="G4" s="20" t="s">
         <v>98</v>
       </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.64513888888888882</v>
+      </c>
       <c r="M4" s="10">
         <f t="shared" ref="M4:M50" si="0">L4-J4</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="13"/>
+        <v>7.0138888888888751E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="27"/>
       <c r="T4" s="8" t="s">
         <v>82</v>
       </c>
@@ -1343,18 +1408,46 @@
       <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="H5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.74861111111111101</v>
+      </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="13"/>
+        <v>1.2499999999999845E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="27"/>
       <c r="T5" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1375,24 +1468,20 @@
         <v>99</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I6" s="25">
         <v>44816</v>
       </c>
-      <c r="J6" s="26">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0.51666666666666672</v>
-      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10">
         <f t="shared" si="0"/>
-        <v>-0.50069444444444444</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>59</v>
@@ -1403,12 +1492,15 @@
       <c r="Q6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="28"/>
+      <c r="R6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="27"/>
       <c r="T6" s="8" t="s">
         <v>69</v>
       </c>
       <c r="U6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1429,26 +1521,20 @@
         <v>96</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I7" s="25">
         <v>44816</v>
       </c>
-      <c r="J7" s="26">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="L7" s="26">
-        <v>0.73402777777777783</v>
-      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="10">
         <f t="shared" si="0"/>
-        <v>0.3527777777777778</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>59</v>
@@ -1467,7 +1553,7 @@
         <v>69</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1525,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1583,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1643,7 +1729,7 @@
         <v>69</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1664,18 +1750,37 @@
       <c r="G11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.58819444444444446</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="13"/>
+        <v>-0.5708333333333333</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="30"/>
       <c r="T11" s="11" t="s">
         <v>76</v>
       </c>
+      <c r="U11" s="31"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1752,7 +1857,7 @@
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="I13" s="9">
         <v>44816</v>
@@ -1790,7 +1895,7 @@
         <v>84</v>
       </c>
       <c r="U13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1809,7 +1914,12 @@
       <c r="G14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="H14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44817</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1817,9 +1927,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="27"/>
       <c r="T14" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1838,17 +1966,40 @@
       <c r="G15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44817</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M15" si="1">L15-J15</f>
         <v>0</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="27"/>
       <c r="T15" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1867,7 +2018,12 @@
       <c r="G16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44817</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1875,9 +2031,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="13"/>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="30"/>
       <c r="T16" s="8" t="s">
         <v>69</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1888,7 +2062,7 @@
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="1"/>
@@ -1896,16 +2070,45 @@
       <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.85763888888888884</v>
+      </c>
       <c r="M17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="13"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="27"/>
       <c r="T17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1925,14 +2128,43 @@
       <c r="G18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44817</v>
+      </c>
       <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.51736111111111105</v>
+      </c>
       <c r="M18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="13"/>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="27"/>
       <c r="T18" s="8"/>
+      <c r="U18" s="32" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1950,18 +2182,46 @@
       <c r="G19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.38055555555555554</v>
+      </c>
       <c r="M19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="13"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="27"/>
       <c r="T19" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="U19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2011,13 +2271,36 @@
       <c r="G21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44817</v>
+      </c>
       <c r="M21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="27"/>
       <c r="T21" s="8"/>
+      <c r="U21" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2037,17 +2320,35 @@
       <c r="G22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44817</v>
+      </c>
       <c r="M22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M22" si="2">L22-J22</f>
         <v>0</v>
       </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="S22" s="13"/>
-      <c r="T22" s="8" t="s">
-        <v>94</v>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2068,16 +2369,35 @@
       <c r="G23" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="H23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44817</v>
+      </c>
       <c r="M23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M23" si="3">L23-J23</f>
         <v>0</v>
       </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="S23" s="13"/>
-      <c r="T23" s="8" t="s">
-        <v>74</v>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2137,7 +2457,7 @@
         <v>69</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2338,16 +2658,45 @@
       <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="H28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.46388888888888885</v>
+      </c>
       <c r="M28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="13"/>
+        <v>8.0555555555555547E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="27"/>
       <c r="T28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2369,17 +2718,46 @@
       <c r="G29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="H29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.47430555555555554</v>
+      </c>
       <c r="M29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="13"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="27"/>
       <c r="T29" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2400,17 +2778,46 @@
       <c r="G30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.48541666666666666</v>
+      </c>
       <c r="M30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="13"/>
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="27"/>
       <c r="T30" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2431,17 +2838,46 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="H31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.50555555555555554</v>
+      </c>
       <c r="M31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="13"/>
+        <v>2.3611111111111083E-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="27"/>
       <c r="T31" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2562,15 +2998,41 @@
       <c r="G36" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.51597222222222217</v>
+      </c>
       <c r="M36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="13"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="27"/>
       <c r="T36" s="8" t="s">
         <v>69</v>
       </c>
@@ -2591,15 +3053,41 @@
       <c r="G37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="M37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="13"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="27"/>
       <c r="T37" s="8" t="s">
         <v>68</v>
       </c>
@@ -2620,7 +3108,12 @@
       <c r="G38" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="9">
+        <v>44817</v>
+      </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2628,7 +3121,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S38" s="13"/>
+      <c r="N38" t="s">
+        <v>112</v>
+      </c>
+      <c r="S38" s="28"/>
       <c r="T38" s="8" t="s">
         <v>69</v>
       </c>
@@ -2649,7 +3145,12 @@
       <c r="G39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="9">
+        <v>44817</v>
+      </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2657,7 +3158,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S39" s="13"/>
+      <c r="N39" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="28"/>
       <c r="T39" s="8" t="s">
         <v>69</v>
       </c>
@@ -2678,15 +3182,41 @@
       <c r="G40" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0.5541666666666667</v>
+      </c>
       <c r="M40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="13"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="27"/>
       <c r="T40" s="8" t="s">
         <v>69</v>
       </c>
@@ -2707,12 +3237,41 @@
       <c r="G41" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0.56111111111111112</v>
+      </c>
       <c r="M41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="13"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="27"/>
       <c r="T41" s="8" t="s">
         <v>95</v>
       </c>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817C1F02-3656-47F7-8A1A-B5D2DADC3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183E68F-5B2B-43D3-8758-125E398169CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="122">
   <si>
     <t>NO P</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t>Correcto. SP lo ejecuta Ana.</t>
+  </si>
+  <si>
+    <t>Se ejecutó el Autoit. El proceso se quedó hasta el Query.</t>
+  </si>
+  <si>
+    <t>Correcto. Lo realiza Alex por proceso de entrega.</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,12 +771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -788,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,14 +842,17 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,11 +1180,11 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S30:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,14 +1206,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="31"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
@@ -1301,20 +1304,18 @@
         <v>64</v>
       </c>
       <c r="I3" s="9">
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="J3" s="10">
-        <v>0.3756944444444445</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K3" s="10">
-        <v>0.39513888888888887</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.39930555555555558</v>
-      </c>
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="10">
         <f>L3-J3</f>
-        <v>2.3611111111111083E-2</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="N3" t="s">
         <v>75</v>
@@ -1331,7 +1332,7 @@
       <c r="R3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="27"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="R8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S8" s="27"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="8" t="s">
         <v>69</v>
       </c>
@@ -1776,11 +1777,13 @@
       <c r="P11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S11" s="30"/>
+      <c r="S11" s="28"/>
       <c r="T11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="31"/>
+      <c r="U11" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2046,11 +2049,11 @@
       <c r="R16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="30"/>
+      <c r="S16" s="28"/>
       <c r="T16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="31" t="s">
+      <c r="U16" s="29" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="32" t="s">
+      <c r="U18" s="30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2905,7 +2908,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3036,8 +3039,11 @@
       <c r="T36" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3091,8 +3097,11 @@
       <c r="T37" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3122,14 +3131,29 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>112</v>
-      </c>
-      <c r="S38" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="27"/>
       <c r="T38" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3159,14 +3183,29 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>112</v>
-      </c>
-      <c r="S39" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" s="27"/>
       <c r="T39" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3220,8 +3259,11 @@
       <c r="T40" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3275,8 +3317,11 @@
       <c r="T41" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -3294,7 +3339,7 @@
       </c>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3312,7 +3357,7 @@
       </c>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -3330,7 +3375,7 @@
       </c>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -3348,7 +3393,7 @@
       </c>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -3366,7 +3411,7 @@
       </c>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -3384,7 +3429,7 @@
       </c>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3487,14 +3532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="31"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>

--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F183E68F-5B2B-43D3-8758-125E398169CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3E3A4-8ABB-4846-B4AE-B8708EDF8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="SEM05_09_SEP" sheetId="2" r:id="rId2"/>
+    <sheet name="SEM12_16_SEP" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$W$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$A$2:$W$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SEM12_16_SEP!$A$2:$W$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
     <author>Rodriguez Morales Alejandro</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{960FD3A6-FB27-40DA-9AEE-5363F56D3F06}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{74800FD6-D6B1-4F1C-8577-8BD6181676AF}">
       <text>
         <r>
           <rPr>
@@ -64,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{625365A8-EABF-4E24-BE73-30C506E63471}">
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{A7F4BB59-78D1-4BE1-AE9D-94657F06D331}">
       <text>
         <r>
           <rPr>
@@ -78,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{88BCF19B-C9DB-4688-AA1A-FA1DC9A80D14}">
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{3441667F-7F95-404A-94D6-6E86C4228757}">
       <text>
         <r>
           <rPr>
@@ -102,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{57C45DAA-604D-4A8C-A80A-0C9B641E887C}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{492C1460-CCF2-45F6-9C44-49F7C74DBC77}">
       <text>
         <r>
           <rPr>
@@ -119,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{EFFE2419-0E1E-45FB-A010-464F6819092D}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{C6CF1978-3F9C-4ADE-B298-B89D38D87A38}">
       <text>
         <r>
           <rPr>
@@ -268,8 +270,123 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mediazb</author>
+    <author>Diaz Leal Maria Guadalupe</author>
+    <author>Rodriguez Morales Alejandro</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{960FD3A6-FB27-40DA-9AEE-5363F56D3F06}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Validar descarga con las siguientes marcas:
+0-No descargó
+X-Descargado
+Data: Carp Files, Carp FTPySQL, ejecutable.
+En Cifra Control agregar las de Carp Descarga y ejecutable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{625365A8-EABF-4E24-BE73-30C506E63471}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NARANJA: los archivos .exe ya fueron modificados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{88BCF19B-C9DB-4688-AA1A-FA1DC9A80D14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rodriguez Morales Alejandro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se está descargando por línea de comandos porque la aplicación de escritorio tiene un error. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{57C45DAA-604D-4A8C-A80A-0C9B641E887C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EJECUTANDOSE
+VALINDANDO
+PENDIENTE
+FINALIZADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{EFFE2419-0E1E-45FB-A010-464F6819092D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mediazb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+VERDE: 3000 Controles fue a la alza y proceso completo y validado 
+VIOLETA: DESCONTINUADO
+AMARILLO: Pendientes por ejecutarse
+ROJO: Se ejecutó y arrojó incidencias
+ANARANJADO: Se ejecutó pero 3000 controles se mantuvo
+ROSA: Ejecución depende de recepción de archivo
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="131">
   <si>
     <t>NO P</t>
   </si>
@@ -598,9 +715,6 @@
     <t xml:space="preserve">Corrio de manera regular, pero no subía la información. </t>
   </si>
   <si>
-    <t>Se tiene un error ya que no guarda la información descargada.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inicio el proceso Ana, Mario ejecuto el SP. </t>
   </si>
   <si>
@@ -635,13 +749,64 @@
   </si>
   <si>
     <t>Correcto. Lo realiza Alex por proceso de entrega.</t>
+  </si>
+  <si>
+    <t>Lunes: Correcto. Miercoles: Correcto.</t>
+  </si>
+  <si>
+    <t>Martes: Se tiene un error ya que no guarda la información descargada. Miercoles: Correcto. Jueves: Se mantiene la cifra. Correcto.</t>
+  </si>
+  <si>
+    <t>Correcto, CC = Data.</t>
+  </si>
+  <si>
+    <t>Correcto.</t>
+  </si>
+  <si>
+    <t>Lunes: Correcto.</t>
+  </si>
+  <si>
+    <t>Manual, plantilla.</t>
+  </si>
+  <si>
+    <t>19 AL 23 SEP</t>
+  </si>
+  <si>
+    <t>Correcto, CC &lt; Data.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se levanta incidencia dado que el SP muestra error al ejecutarse. Alex ejecuta SP desde </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Validación correcta. La carpeta en desarrollo que guarda la información aún se encuetra en 3000 Autoit, pedir a César se cambie de carpeta a "A1_Bases para subir a SQL".</t>
+    </r>
+  </si>
+  <si>
+    <t>Se ejecutó el Autoit. El proceso se quedó hasta el Query. Alex terminó el proceso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +874,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,13 +1024,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,15 +1391,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE7451-A8B8-466F-87B1-5A41119ECC85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8B77B3-ED1F-4E28-9132-5C0C3A23B249}">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="S30:S31"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,9 +1407,8 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.7109375" customWidth="1"/>
@@ -1206,59 +1420,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="34"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="33" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -1276,11 +1490,11 @@
       <c r="S2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>90</v>
+      <c r="U2" s="33" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1304,18 +1518,20 @@
         <v>64</v>
       </c>
       <c r="I3" s="9">
-        <v>44818</v>
+        <v>44823</v>
       </c>
       <c r="J3" s="10">
-        <v>0.42499999999999999</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="K3" s="10">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="L3" s="10"/>
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.38819444444444445</v>
+      </c>
       <c r="M3" s="10">
         <f>L3-J3</f>
-        <v>-0.42499999999999999</v>
+        <v>1.9444444444444486E-2</v>
       </c>
       <c r="N3" t="s">
         <v>75</v>
@@ -1332,12 +1548,10 @@
       <c r="R3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8"/>
       <c r="U3" s="8" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1355,44 +1569,17 @@
       <c r="G4" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.64513888888888882</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="10">
         <f t="shared" ref="M4:M50" si="0">L4-J4</f>
-        <v>7.0138888888888751E-2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1409,47 +1596,18 @@
       <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0.74722222222222223</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0.74861111111111101</v>
-      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>1.2499999999999845E-2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" s="27"/>
-      <c r="T5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1461,7 +1619,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="1"/>
@@ -1469,17 +1627,23 @@
         <v>99</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I6" s="25">
-        <v>44816</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>44823</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.41180555555555554</v>
+      </c>
       <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>L6-J6</f>
+        <v>9.0277777777778012E-3</v>
       </c>
       <c r="N6" t="s">
         <v>75</v>
@@ -1497,11 +1661,9 @@
         <v>59</v>
       </c>
       <c r="S6" s="27"/>
-      <c r="T6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U6" t="s">
-        <v>111</v>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1514,7 +1676,7 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="1"/>
@@ -1522,39 +1684,43 @@
         <v>96</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I7" s="25">
-        <v>44816</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>108</v>
+        <v>44823</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333592E-3</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="38"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1565,54 +1731,52 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="20" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
         <v>101</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I8" s="25">
-        <v>44816</v>
+        <v>44823</v>
       </c>
       <c r="J8" s="26">
-        <v>0.40138888888888885</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="K8" s="26">
-        <v>0.41319444444444442</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="L8" s="26">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777835E-2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>119</v>
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="38"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1623,7 +1787,7 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="1"/>
@@ -1632,45 +1796,43 @@
         <v>100</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I9" s="25">
-        <v>44816</v>
+        <v>44823</v>
       </c>
       <c r="J9" s="26">
-        <v>0.41736111111111113</v>
+        <v>0.4375</v>
       </c>
       <c r="K9" s="26">
-        <v>0.50416666666666665</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="L9" s="26">
-        <v>0.52708333333333335</v>
-      </c>
-      <c r="M9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10972222222222222</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>119</v>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="38"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1692,45 +1854,43 @@
         <v>102</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I10" s="25">
-        <v>44816</v>
+        <v>44823</v>
       </c>
       <c r="J10" s="26">
-        <v>0.54027777777777775</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="K10" s="26">
-        <v>0.55694444444444446</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="L10" s="26">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="0"/>
-        <v>2.8472222222222232E-2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>119</v>
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="38"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1754,35 +1914,41 @@
       <c r="H11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.5708333333333333</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>120</v>
+      <c r="I11" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="0"/>
+        <v>2.2916666666666696E-2</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="38"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="50" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1801,47 +1967,23 @@
       <c r="G12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.49513888888888885</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="0"/>
-        <v>9.7916666666666707E-2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="27"/>
-      <c r="T12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1859,47 +2001,23 @@
       <c r="G13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0.53402777777777777</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.7402777777777777</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.20624999999999993</v>
-      </c>
-      <c r="N13" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="27"/>
-      <c r="T13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" t="s">
-        <v>113</v>
-      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1909,7 +2027,7 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="35" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="1"/>
@@ -1917,41 +2035,23 @@
       <c r="G14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="27"/>
-      <c r="T14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1961,7 +2061,7 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
@@ -1969,41 +2069,23 @@
       <c r="G15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10">
-        <f t="shared" ref="M15" si="1">L15-J15</f>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="27"/>
-      <c r="T15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2013,7 +2095,7 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E16" s="1"/>
@@ -2021,41 +2103,23 @@
       <c r="G16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="41"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2073,47 +2137,23 @@
       <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2131,42 +2171,44 @@
       <c r="G18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="30" t="s">
-        <v>118</v>
+      <c r="H18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="0"/>
+        <v>9.0277777777776902E-3</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="38"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2177,54 +2219,52 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.37013888888888885</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.3756944444444445</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.38055555555555554</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U19" t="s">
-        <v>109</v>
+      <c r="I19" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="M19" s="26">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="38"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2235,24 +2275,24 @@
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="16"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
     </row>
@@ -2266,44 +2306,31 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="20" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="9">
-        <v>44817</v>
-      </c>
-      <c r="M21" s="10">
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2315,43 +2342,50 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="20" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="9">
-        <v>44817</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" ref="M22" si="2">L22-J22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8" t="s">
-        <v>116</v>
+      <c r="H22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="0"/>
+        <v>5.1388888888888873E-2</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="38"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2364,43 +2398,50 @@
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="20" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H23" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="9">
-        <v>44817</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="shared" ref="M23" si="3">L23-J23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8" t="s">
-        <v>116</v>
+      <c r="H23" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="M23" s="26">
+        <f t="shared" si="0"/>
+        <v>6.3194444444444497E-2</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="38"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2413,55 +2454,31 @@
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="M24" s="10">
-        <f t="shared" si="0"/>
-        <v>1.9444444444444486E-2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="24"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2473,7 +2490,7 @@
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="1"/>
@@ -2481,47 +2498,23 @@
       <c r="G25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0.64722222222222225</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.65833333333333333</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.66319444444444442</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5972222222222165E-2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S25" s="27"/>
-      <c r="T25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2541,47 +2534,23 @@
       <c r="G26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.6743055555555556</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8055555555555602E-2</v>
-      </c>
-      <c r="N26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S26" s="27"/>
-      <c r="T26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="24"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2601,47 +2570,23 @@
       <c r="G27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="9">
-        <v>44816</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0.67569444444444438</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.67638888888888893</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0.67986111111111114</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="0"/>
-        <v>4.1666666666667629E-3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2661,47 +2606,23 @@
       <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.46388888888888885</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="0"/>
-        <v>8.0555555555555547E-2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2721,47 +2642,23 @@
       <c r="G29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5972222222222221E-2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2781,47 +2678,23 @@
       <c r="G30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0.39027777777777778</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="M30" s="10">
-        <f t="shared" si="0"/>
-        <v>9.5138888888888884E-2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>75</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2841,47 +2714,23 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.48194444444444445</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0.50555555555555554</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3611111111111083E-2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>75</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="27"/>
-      <c r="T31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2899,14 +2748,23 @@
       <c r="G32" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="10">
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2924,14 +2782,23 @@
       <c r="G33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="10">
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2951,14 +2818,23 @@
       <c r="G34" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="10">
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2976,14 +2852,23 @@
       <c r="G35" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M35" s="10">
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2993,7 +2878,7 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="1"/>
@@ -3001,46 +2886,44 @@
       <c r="G36" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H36" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0.51597222222222217</v>
-      </c>
-      <c r="M36" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5972222222222165E-2</v>
-      </c>
-      <c r="N36" t="s">
-        <v>75</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>69</v>
+      <c r="H36" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.65625</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="M36" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="38"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3051,7 +2934,7 @@
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="1"/>
@@ -3059,46 +2942,44 @@
       <c r="G37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="K37" s="10">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="M37" s="10">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>75</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" s="27"/>
-      <c r="T37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>69</v>
+      <c r="H37" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="K37" s="26">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="38"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3109,7 +2990,7 @@
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E38" s="1"/>
@@ -3117,41 +2998,23 @@
       <c r="G38" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10">
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" t="s">
-        <v>75</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S38" s="27"/>
-      <c r="T38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N38" s="24"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3161,7 +3024,7 @@
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="1"/>
@@ -3169,41 +3032,23 @@
       <c r="G39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10">
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S39" s="27"/>
-      <c r="T39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N39" s="24"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3213,7 +3058,7 @@
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E40" s="1"/>
@@ -3221,46 +3066,44 @@
       <c r="G40" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0.54583333333333328</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0.5541666666666667</v>
-      </c>
-      <c r="M40" s="10">
-        <f t="shared" si="0"/>
-        <v>8.3333333333334147E-3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>75</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="27"/>
-      <c r="T40" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>69</v>
+      <c r="H40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J40" s="26">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="K40" s="26">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="38"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3271,7 +3114,7 @@
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E41" s="1"/>
@@ -3279,46 +3122,44 @@
       <c r="G41" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="9">
-        <v>44817</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0.55347222222222225</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888618E-3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>75</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S41" s="27"/>
-      <c r="T41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>69</v>
+      <c r="H41" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J41" s="26">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="K41" s="26">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="L41" s="26">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="38"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3507,7 +3348,7 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
@@ -3532,14 +3373,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="34"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
@@ -5678,4 +5519,2329 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE7451-A8B8-466F-87B1-5A41119ECC85}">
+  <dimension ref="A1:W55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="T1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44818</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10">
+        <f>L3-J3</f>
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M50" si="0">L4-J4</f>
+        <v>7.0138888888888751E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999845E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="10">
+        <f>L6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44816</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.5708333333333333</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>9.7916666666666707E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="T12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20624999999999993</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="27"/>
+      <c r="T13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <f t="shared" ref="M15" si="1">L15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="27"/>
+      <c r="T15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="28"/>
+      <c r="T16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="27"/>
+      <c r="T17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44819</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="T19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44817</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="27"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22" si="2">L22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44817</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" ref="M23" si="3">L23-J23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="27"/>
+      <c r="T24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="27"/>
+      <c r="T25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="27"/>
+      <c r="T26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="9">
+        <v>44816</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1666666666667629E-3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="0"/>
+        <v>8.0555555555555547E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="27"/>
+      <c r="T28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="27"/>
+      <c r="T29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="0"/>
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="27"/>
+      <c r="T30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3611111111111083E-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="27"/>
+      <c r="T31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="13"/>
+      <c r="T32" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13"/>
+      <c r="T33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="27"/>
+      <c r="T36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="27"/>
+      <c r="T37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="27"/>
+      <c r="T38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="27"/>
+      <c r="T40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="9">
+        <v>44817</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="27"/>
+      <c r="T41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="M42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="M43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="M44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="M45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="M46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="M47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="M48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="M49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="M50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SEGUIMIENTO_A.xlsx
+++ b/SEGUIMIENTO_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3E3A4-8ABB-4846-B4AE-B8708EDF8316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC280290-E41E-4368-82C8-45EA54FE69EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4820814D-FDC3-4D82-94A2-679E05A391F6}"/>
   </bookViews>
@@ -16,10 +16,12 @@
     <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="SEM05_09_SEP" sheetId="2" r:id="rId2"/>
     <sheet name="SEM12_16_SEP" sheetId="1" r:id="rId3"/>
+    <sheet name="SEM19_23_SEP" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$A$2:$W$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SEM12_16_SEP!$A$2:$W$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SEM19_23_SEP!$A$2:$W$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,8 +387,123 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mediazb</author>
+    <author>Diaz Leal Maria Guadalupe</author>
+    <author>Rodriguez Morales Alejandro</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7417D834-2895-45C1-B11F-613CB902B094}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Validar descarga con las siguientes marcas:
+0-No descargó
+X-Descargado
+Data: Carp Files, Carp FTPySQL, ejecutable.
+En Cifra Control agregar las de Carp Descarga y ejecutable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{B4B51B2F-6877-4B8A-BD85-21F9B5536F5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NARANJA: los archivos .exe ya fueron modificados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0" xr:uid="{0AFBA36F-39A0-43DA-93A0-ACEE0A0FA692}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rodriguez Morales Alejandro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se está descargando por línea de comandos porque la aplicación de escritorio tiene un error. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{5355C0D2-CC23-41BA-B8E9-F921C668F4C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EJECUTANDOSE
+VALINDANDO
+PENDIENTE
+FINALIZADO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{79E8137F-23F8-4035-A953-3866414CBCB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>mediazb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+VERDE: 3000 Controles fue a la alza y proceso completo y validado 
+VIOLETA: DESCONTINUADO
+AMARILLO: Pendientes por ejecutarse
+ROJO: Se ejecutó y arrojó incidencias
+ANARANJADO: Se ejecutó pero 3000 controles se mantuvo
+ROSA: Ejecución depende de recepción de archivo
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="136">
   <si>
     <t>NO P</t>
   </si>
@@ -775,8 +892,11 @@
     <t>Correcto, CC &lt; Data.</t>
   </si>
   <si>
+    <t>Se ejecutó el Autoit. El proceso se quedó hasta el Query. Alex terminó el proceso.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Se levanta incidencia dado que el SP muestra error al ejecutarse. Alex ejecuta SP desde </t>
+      <t xml:space="preserve">Lunes: Se levanta incidencia dado que el SP muestra error al ejecutarse. Alex ejecuta SP desde </t>
     </r>
     <r>
       <rPr>
@@ -795,11 +915,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Validación correcta. La carpeta en desarrollo que guarda la información aún se encuetra en 3000 Autoit, pedir a César se cambie de carpeta a "A1_Bases para subir a SQL".</t>
+      <t xml:space="preserve"> Validación correcta. La carpeta en desarrollo que guarda la información aún se encuetra en 3000 Autoit, pedir a César se cambie de carpeta a "A1_Bases para subir a SQL". Martes: Se ejecuta sin ningún error.</t>
     </r>
   </si>
   <si>
-    <t>Se ejecutó el Autoit. El proceso se quedó hasta el Query. Alex terminó el proceso.</t>
+    <t>CC &gt; Data.</t>
+  </si>
+  <si>
+    <t>Mario lo ejecutó por la mañana, Ana por la tarde. Se tuvo incidencia dado que arrojaba una diferencia de 5 millones. El día 20/09/2022 se le mencionó el error a César, él dijo que el error estaba en los archivos temporales. No hubo modificación del archivo. Ana hizo nuevamente pruebas y se duplicaron los datos. Al volverse a ejecutar actualizo de manera correcta el archivo.</t>
+  </si>
+  <si>
+    <t>Lunes: Correcto. Martes: Correcto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se inició el proceso 08:54 en la computadora de Ana, debido a que la máquina se bloqueó el Autoit perdió el foco del proceso. Se reinició nuevamente. </t>
+  </si>
+  <si>
+    <t>Paloma termina el proceso debido a que la información de la ejecución por parte de Mario no se refleja en 3000 controles</t>
   </si>
 </sst>
 </file>
@@ -892,7 +1024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,8 +1085,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -962,11 +1106,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,9 +1190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,6 +1223,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,11 +1564,11 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,14 +1589,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="56"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
@@ -1514,45 +1683,17 @@
       <c r="G3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="9">
-        <v>44823</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.36874999999999997</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38472222222222219</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.38819444444444445</v>
-      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="10">
         <f>L3-J3</f>
-        <v>1.9444444444444486E-2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="13"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1569,7 +1710,12 @@
       <c r="G4" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="25">
+        <v>44830</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1579,7 +1725,9 @@
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1596,18 +1744,41 @@
       <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="25">
+        <v>44830</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.72986111111111107</v>
+      </c>
       <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="L5" s="26">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="M5" s="26">
+        <f>L5-J5</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="37"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="52"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1626,45 +1797,18 @@
       <c r="G6" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0.40833333333333338</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.41180555555555554</v>
-      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="10">
         <f>L6-J6</f>
-        <v>9.0277777777778012E-3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="13"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1683,45 +1827,23 @@
       <c r="G7" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="L7" s="26">
-        <v>0.42291666666666666</v>
-      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="26">
         <f t="shared" si="0"/>
-        <v>8.3333333333333592E-3</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1734,50 +1856,46 @@
       <c r="D8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39" t="s">
         <v>101</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="25">
-        <v>44823</v>
+        <v>44830</v>
       </c>
       <c r="J8" s="26">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0.43124999999999997</v>
-      </c>
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="K8" s="26"/>
       <c r="L8" s="26">
-        <v>0.43472222222222223</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="M8" s="26">
         <f t="shared" si="0"/>
-        <v>9.7222222222222432E-3</v>
+        <v>5.5555555555555358E-3</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36" t="s">
-        <v>124</v>
-      </c>
+      <c r="O8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="37"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1799,41 +1917,37 @@
         <v>64</v>
       </c>
       <c r="I9" s="25">
-        <v>44823</v>
+        <v>44830</v>
       </c>
       <c r="J9" s="26">
-        <v>0.4375</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0.46180555555555558</v>
-      </c>
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="K9" s="26"/>
       <c r="L9" s="26">
-        <v>0.46527777777777773</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" si="0"/>
-        <v>2.7777777777777735E-2</v>
+        <v>2.1527777777777701E-2</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36" t="s">
-        <v>128</v>
-      </c>
+      <c r="O9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="37"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1853,45 +1967,41 @@
       <c r="G10" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>64</v>
+      <c r="H10" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="I10" s="25">
-        <v>44823</v>
+        <v>44830</v>
       </c>
       <c r="J10" s="26">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0.52777777777777779</v>
-      </c>
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="K10" s="26"/>
       <c r="L10" s="26">
-        <v>0.53194444444444444</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="0"/>
-        <v>1.8750000000000044E-2</v>
+        <v>1.6666666666666718E-2</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36" t="s">
-        <v>124</v>
-      </c>
+      <c r="O10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1912,44 +2022,40 @@
         <v>96</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I11" s="25">
-        <v>44823</v>
+        <v>44830</v>
       </c>
       <c r="J11" s="26">
-        <v>0.53611111111111109</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0.55902777777777779</v>
-      </c>
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="K11" s="26"/>
       <c r="L11" s="26">
-        <v>0.55902777777777779</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="0"/>
-        <v>2.2916666666666696E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="50" t="s">
-        <v>130</v>
-      </c>
+      <c r="O11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="37"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1967,23 +2073,43 @@
       <c r="G12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="25">
+        <v>44830</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="L12" s="26">
+        <v>0.5395833333333333</v>
+      </c>
       <c r="M12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+        <v>8.8194444444444409E-2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="S12" s="37"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2001,23 +2127,41 @@
       <c r="G13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="25">
+        <v>44830</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0.54236111111111118</v>
+      </c>
       <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="26">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="M13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="S13" s="37"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2027,7 +2171,7 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="1"/>
@@ -2035,7 +2179,7 @@
       <c r="G14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -2045,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="24"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2061,7 +2205,7 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
@@ -2079,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="24"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2103,23 +2247,41 @@
       <c r="G16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="25">
+        <v>44830</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.37361111111111112</v>
+      </c>
       <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="26">
+        <v>0.4597222222222222</v>
+      </c>
       <c r="M16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+        <v>8.6111111111111083E-2</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="S16" s="37"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="41"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="40"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2137,23 +2299,41 @@
       <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="25">
+        <v>44830</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.46249999999999997</v>
+      </c>
       <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="26">
+        <v>0.5395833333333333</v>
+      </c>
       <c r="M17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="S17" s="37"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2171,45 +2351,23 @@
       <c r="G18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="L18" s="26">
-        <v>0.47847222222222219</v>
-      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="26">
         <f t="shared" si="0"/>
-        <v>9.0277777777776902E-3</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="42" t="s">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="41"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2219,53 +2377,31 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="L19" s="26">
-        <v>0.49722222222222223</v>
-      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="26">
         <f t="shared" si="0"/>
-        <v>1.4583333333333337E-2</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36" t="s">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="52"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2275,24 +2411,24 @@
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
     </row>
@@ -2306,12 +2442,12 @@
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="24"/>
@@ -2324,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="24"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2342,51 +2478,31 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J22" s="26">
-        <v>0.39583333333333331</v>
-      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="26">
-        <v>0.44722222222222219</v>
-      </c>
+      <c r="L22" s="26"/>
       <c r="M22" s="26">
         <f t="shared" si="0"/>
-        <v>5.1388888888888873E-2</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36" t="s">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="24"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2398,51 +2514,31 @@
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0.44930555555555557</v>
-      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="26">
-        <v>0.51250000000000007</v>
-      </c>
+      <c r="L23" s="26"/>
       <c r="M23" s="26">
         <f t="shared" si="0"/>
-        <v>6.3194444444444497E-2</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="38"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36" t="s">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="24"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2454,15 +2550,15 @@
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -2472,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="24"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2490,7 +2586,7 @@
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="1"/>
@@ -2498,7 +2594,7 @@
       <c r="G25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -2508,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="24"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2534,7 +2630,7 @@
       <c r="G26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -2544,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="24"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2570,7 +2666,7 @@
       <c r="G27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -2580,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="24"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2606,7 +2702,7 @@
       <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -2616,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="24"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2642,7 +2738,7 @@
       <c r="G29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -2652,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="24"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2678,7 +2774,7 @@
       <c r="G30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -2688,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="24"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2714,7 +2810,7 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -2724,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="24"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2758,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="24"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2792,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="24"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2828,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="24"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2862,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="24"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2883,48 +2979,26 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J36" s="26">
-        <v>0.65625</v>
-      </c>
-      <c r="K36" s="26">
-        <v>0.65902777777777777</v>
-      </c>
-      <c r="L36" s="26">
-        <v>0.66249999999999998</v>
-      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="26">
         <f t="shared" si="0"/>
-        <v>6.2499999999999778E-3</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O36" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S36" s="38"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36" t="s">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2942,45 +3016,23 @@
       <c r="G37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J37" s="26">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="K37" s="26">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="L37" s="26">
-        <v>0.67291666666666661</v>
-      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="26">
         <f t="shared" si="0"/>
-        <v>1.1111111111111072E-2</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R37" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2995,7 +3047,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="54" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="24"/>
@@ -3008,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="24"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3042,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="24"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3063,48 +3115,26 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J40" s="26">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="K40" s="26">
-        <v>0.67638888888888893</v>
-      </c>
-      <c r="L40" s="26">
-        <v>0.67986111111111114</v>
-      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
       <c r="M40" s="26">
         <f t="shared" si="0"/>
-        <v>6.2499999999999778E-3</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="38"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36" t="s">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="24"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3122,45 +3152,23 @@
       <c r="G41" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="25">
-        <v>44823</v>
-      </c>
-      <c r="J41" s="26">
-        <v>0.68333333333333324</v>
-      </c>
-      <c r="K41" s="26">
-        <v>0.68611111111111101</v>
-      </c>
-      <c r="L41" s="26">
-        <v>0.68958333333333333</v>
-      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
       <c r="M41" s="26">
         <f t="shared" si="0"/>
-        <v>6.2500000000000888E-3</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="O41" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R41" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="S41" s="38"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36" t="s">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="24"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -3373,14 +3381,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="56"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
@@ -5552,14 +5560,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="56"/>
       <c r="T1" s="15" t="s">
         <v>54</v>
       </c>
@@ -7844,4 +7852,2090 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608E4F17-B3BE-46B3-85E9-27870805F938}">
+  <dimension ref="A1:W55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="T1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44823</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="M3" s="10">
+        <f>L3-J3</f>
+        <v>1.9444444444444486E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M50" si="0">L4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="25">
+        <v>44824</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="M5" s="26">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="M6" s="10">
+        <f>L6-J6</f>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333592E-3</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="37"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="37"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.4375</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="37"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="0"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="0"/>
+        <v>2.2916666666666696E-2</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="37"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="M14" s="26">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="37"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="M15" s="26">
+        <f t="shared" si="0"/>
+        <v>2.7777777777778234E-3</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="51"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="0"/>
+        <v>9.0277777777776902E-3</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="37"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="M19" s="26">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333337E-2</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="37"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="25">
+        <v>44824</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="37"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="0"/>
+        <v>5.1388888888888873E-2</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="37"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="M23" s="26">
+        <f t="shared" si="0"/>
+        <v>6.3194444444444497E-2</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="24"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="24"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.65625</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="M36" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="37"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="K37" s="26">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="37"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="K38" s="26">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="M38" s="26">
+        <f t="shared" si="0"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="37"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J39" s="26">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="K39" s="26">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R39" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" s="37"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J40" s="26">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="K40" s="26">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="37"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="25">
+        <v>44823</v>
+      </c>
+      <c r="J41" s="26">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="K41" s="26">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="L41" s="26">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000888E-3</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="37"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="M42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="M43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="M44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="M45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="M46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="M47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="M48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="M49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="M50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>